--- a/SistemaPuntoAcaiDevoto/clientes.xlsx
+++ b/SistemaPuntoAcaiDevoto/clientes.xlsx
@@ -16,7 +16,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="588">
+  <si>
+    <t>andy, cabrera</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>tipo 4</t>
+  </si>
+  <si>
+    <t>kao, karim</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>malena, diaz</t>
+  </si>
+  <si>
+    <t>romina, frare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adrian, </t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eldieguii, </t>
+  </si>
+  <si>
+    <t>tipo 3</t>
+  </si>
+  <si>
+    <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2019-07-13</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>julieta , jurcak</t>
+  </si>
+  <si>
+    <t>agustina, pasion</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
   <si>
     <t>comprador</t>
   </si>
@@ -1506,6 +1599,93 @@
     <t xml:space="preserve">guardia nacional </t>
   </si>
   <si>
+    <t>eldieguii</t>
+  </si>
+  <si>
+    <t>eldiegui@gmail.com</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>barro</t>
+  </si>
+  <si>
+    <t>andy</t>
+  </si>
+  <si>
+    <t>cabrera</t>
+  </si>
+  <si>
+    <t>56165</t>
+  </si>
+  <si>
+    <t>moliere 1167 dpto 3</t>
+  </si>
+  <si>
+    <t>versailles</t>
+  </si>
+  <si>
+    <t>el negro</t>
+  </si>
+  <si>
+    <t>de whatsapp</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>moliere hugo irigoyen departamento 3</t>
+  </si>
+  <si>
+    <t>dsfs</t>
+  </si>
+  <si>
+    <t>gwllowis</t>
+  </si>
+  <si>
+    <t>pepito</t>
+  </si>
+  <si>
+    <t>clavo un clavito</t>
+  </si>
+  <si>
+    <t>45564</t>
+  </si>
+  <si>
+    <t>hola amigos en esta ocacion os vamos a enseñar como armar un barquito</t>
+  </si>
+  <si>
+    <t>23423</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>horacio</t>
+  </si>
+  <si>
+    <t>adners</t>
+  </si>
+  <si>
+    <t>moliere que es una calle muy lejana de aqui mi niño</t>
+  </si>
+  <si>
+    <t>andresito</t>
+  </si>
+  <si>
+    <t>caaab</t>
+  </si>
+  <si>
+    <t>45646</t>
+  </si>
+  <si>
+    <t>hola vengo a poner una calle bastante larga</t>
+  </si>
+  <si>
+    <t>versailles gg</t>
+  </si>
+  <si>
     <t>clie_dni</t>
   </si>
   <si>
@@ -1542,6 +1722,12 @@
     <t>clie_rubro</t>
   </si>
   <si>
+    <t>moto</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
     <t>fecha_gasto</t>
   </si>
   <si>
@@ -1554,6 +1740,9 @@
     <t>pote frutilla</t>
   </si>
   <si>
+    <t>prueba prueba</t>
+  </si>
+  <si>
     <t>nombre_producto</t>
   </si>
   <si>
@@ -1573,6 +1762,12 @@
   </si>
   <si>
     <t>cantidad_mayor_producto</t>
+  </si>
+  <si>
+    <t>pote frutilla 450.0 cc</t>
+  </si>
+  <si>
+    <t>prueba prueba 100.0 cc</t>
   </si>
   <si>
     <t>numero_venta</t>
@@ -1642,15 +1837,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.94140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.0" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="0.95703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.21484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="66.46875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="17.41796875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="5.30859375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.48828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="15.93359375" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="18.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="15.93359375" customWidth="true" bestFit="true"/>
@@ -1658,40 +1853,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>507</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -1699,37 +1894,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
         <v>1.153743872E9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>5244.0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
         <v>1408.0</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -1737,37 +1932,37 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
         <v>1.162554112E9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
         <v>1259.0</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>1407.0</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1775,37 +1970,37 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
         <v>1.133241088E9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G4" t="n">
         <v>4055.0</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I4" t="n">
         <v>1615.0</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1813,37 +2008,37 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
         <v>1.154856576E9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="G5" t="n">
         <v>1334.0</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -1851,37 +2046,37 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>1.166362112E9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>849.0</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1889,37 +2084,37 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>1.16720768E9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="G7" t="n">
         <v>1648.0</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
         <v>1408.0</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1927,37 +2122,37 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D8" t="n">
         <v>1.152219264E9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
         <v>9320.0</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I8" t="n">
         <v>1408.0</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -1965,37 +2160,37 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I9" t="n">
         <v>1408.0</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -2003,37 +2198,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D10" t="n">
         <v>1.136144512E9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>5245.0</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -2041,37 +2236,37 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
         <v>1.136472576E9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="G11" t="n">
         <v>1893.0</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2079,37 +2274,37 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G12" t="n">
         <v>4714.0</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2117,37 +2312,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
         <v>1.130898944E9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G13" t="n">
         <v>2673.0</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2155,37 +2350,37 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G14" t="n">
         <v>1150.0</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I14" t="n">
         <v>1408.0</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2193,37 +2388,37 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="G15" t="n">
         <v>1064.0</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2231,37 +2426,37 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="G16" t="n">
         <v>3479.0</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2269,37 +2464,37 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G17" t="n">
         <v>3448.0</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -2307,37 +2502,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G18" t="n">
         <v>6702.0</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2345,37 +2540,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="G19" t="n">
         <v>1936.0</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -2383,37 +2578,37 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G20" t="n">
         <v>3431.0</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -2421,37 +2616,37 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D21" t="n">
         <v>1.134112768E9</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G21" t="n">
         <v>1931.0</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2459,37 +2654,37 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D22" t="n">
         <v>0.0</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G22" t="n">
         <v>4187.0</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -2497,37 +2692,37 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D23" t="n">
         <v>1.168073856E9</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G23" t="n">
         <v>1685.0</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -2535,37 +2730,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D24" t="n">
         <v>0.0</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G24" t="n">
         <v>3951.0</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -2573,37 +2768,37 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D25" t="n">
         <v>0.0</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G25" t="n">
         <v>5614.0</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I25" t="n">
         <v>1408.0</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -2611,37 +2806,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G26" t="n">
         <v>5145.0</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I26" t="n">
         <v>1408.0</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2649,37 +2844,37 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="G27" t="n">
         <v>5970.0</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -2687,37 +2882,37 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="G28" t="n">
         <v>3809.0</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -2725,37 +2920,37 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
         <v>0.0</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G29" t="n">
         <v>921.0</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -2763,37 +2958,37 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D30" t="n">
         <v>0.0</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G30" t="n">
         <v>963.0</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -2801,37 +2996,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="G31" t="n">
         <v>6005.0</v>
       </c>
       <c r="H31" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I31" t="n">
         <v>1408.0</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -2839,37 +3034,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D32" t="n">
         <v>0.0</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G32" t="n">
         <v>5655.0</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -2877,37 +3072,37 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D33" t="n">
         <v>0.0</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="G33" t="n">
         <v>1282.0</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -2915,37 +3110,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D34" t="n">
         <v>0.0</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
         <v>3686.0</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I34" t="n">
         <v>0.0</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -2953,37 +3148,37 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="D35" t="n">
         <v>0.0</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -2991,37 +3186,37 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D36" t="n">
         <v>0.0</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="G36" t="n">
         <v>2050.0</v>
       </c>
       <c r="H36" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -3029,37 +3224,37 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="G37" t="n">
         <v>7063.0</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -3067,37 +3262,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D38" t="n">
         <v>0.0</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="G38" t="n">
         <v>2229.0</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
@@ -3105,37 +3300,37 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="G39" t="n">
         <v>3065.0</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I39" t="n">
         <v>0.0</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -3143,37 +3338,37 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="D40" t="n">
         <v>0.0</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G40" t="n">
         <v>5902.0</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -3181,37 +3376,37 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D41" t="n">
         <v>0.0</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="G41" t="n">
         <v>3470.0</v>
       </c>
       <c r="H41" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I41" t="n">
         <v>0.0</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -3219,37 +3414,37 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D42" t="n">
         <v>0.0</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="G42" t="n">
         <v>294.0</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -3257,37 +3452,37 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D43" t="n">
         <v>0.0</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G43" t="n">
         <v>3139.0</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I43" t="n">
         <v>0.0</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -3295,37 +3490,37 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D44" t="n">
         <v>0.0</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G44" t="n">
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -3333,37 +3528,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D45" t="n">
         <v>0.0</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="G45" t="n">
         <v>2140.0</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -3371,37 +3566,37 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D46" t="n">
         <v>0.0</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="G46" t="n">
         <v>4072.0</v>
       </c>
       <c r="H46" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L46" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -3409,37 +3604,37 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D47" t="n">
         <v>0.0</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="G47" t="n">
         <v>2955.0</v>
       </c>
       <c r="H47" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -3447,37 +3642,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D48" t="n">
         <v>0.0</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="G48" t="n">
         <v>4667.0</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -3485,37 +3680,37 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D49" t="n">
         <v>0.0</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="G49" t="n">
         <v>1750.0</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L49" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -3523,37 +3718,37 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D50" t="n">
         <v>0.0</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G50" t="n">
         <v>1221.0</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
@@ -3561,37 +3756,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="D51" t="n">
         <v>0.0</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G51" t="n">
         <v>3888.0</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I51" t="n">
         <v>0.0</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L51" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
@@ -3599,37 +3794,37 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D52" t="n">
         <v>0.0</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G52" t="n">
         <v>4051.0</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -3637,37 +3832,37 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="D53" t="n">
         <v>0.0</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G53" t="n">
         <v>4883.0</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L53" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
@@ -3675,37 +3870,37 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D54" t="n">
         <v>0.0</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="G54" t="n">
         <v>674.0</v>
       </c>
       <c r="H54" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="I54" t="n">
         <v>0.0</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L54" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55">
@@ -3713,37 +3908,37 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D55" t="n">
         <v>0.0</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="G55" t="n">
         <v>3085.0</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="I55" t="n">
         <v>0.0</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56">
@@ -3751,37 +3946,37 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D56" t="n">
         <v>0.0</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="G56" t="n">
         <v>4565.0</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L56" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57">
@@ -3789,37 +3984,37 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="G57" t="n">
         <v>5140.0</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L57" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
@@ -3827,37 +4022,37 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="G58" t="n">
         <v>1372.0</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
@@ -3865,37 +4060,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D59" t="n">
         <v>0.0</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="G59" t="n">
         <v>3680.0</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I59" t="n">
         <v>0.0</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -3903,37 +4098,37 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="D60" t="n">
         <v>0.0</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="G60" t="n">
         <v>3153.0</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61">
@@ -3941,37 +4136,37 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D61" t="n">
         <v>0.0</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G61" t="n">
         <v>978.0</v>
       </c>
       <c r="H61" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L61" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
@@ -3979,37 +4174,37 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="D62" t="n">
         <v>0.0</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="G62" t="n">
         <v>5284.0</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I62" t="n">
         <v>1408.0</v>
       </c>
       <c r="J62" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K62" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63">
@@ -4017,37 +4212,37 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="D63" t="n">
         <v>0.0</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="G63" t="n">
         <v>4221.0</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I63" t="n">
         <v>0.0</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K63" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L63" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
@@ -4055,37 +4250,37 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="D64" t="n">
         <v>0.0</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="G64" t="n">
         <v>6070.0</v>
       </c>
       <c r="H64" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
@@ -4093,37 +4288,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D65" t="n">
         <v>0.0</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G65" t="n">
         <v>2258.0</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66">
@@ -4131,37 +4326,37 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="D66" t="n">
         <v>0.0</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G66" t="n">
         <v>5216.0</v>
       </c>
       <c r="H66" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I66" t="n">
         <v>0.0</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K66" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L66" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67">
@@ -4169,37 +4364,37 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D67" t="n">
         <v>0.0</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="G67" t="n">
         <v>2038.0</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L67" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
@@ -4207,37 +4402,37 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="D68" t="n">
         <v>0.0</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G68" t="n">
         <v>2743.0</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L68" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69">
@@ -4245,37 +4440,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D69" t="n">
         <v>0.0</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="G69" t="n">
         <v>5221.0</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L69" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70">
@@ -4283,37 +4478,37 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="D70" t="n">
         <v>0.0</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G70" t="n">
         <v>2643.0</v>
       </c>
       <c r="H70" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I70" t="n">
         <v>0.0</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L70" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -4321,37 +4516,37 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D71" t="n">
         <v>0.0</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G71" t="n">
         <v>5289.0</v>
       </c>
       <c r="H71" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="I71" t="n">
         <v>0.0</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L71" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
@@ -4359,37 +4554,37 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D72" t="n">
         <v>0.0</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G72" t="n">
         <v>1409.0</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I72" t="n">
         <v>0.0</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L72" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -4397,37 +4592,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D73" t="n">
         <v>0.0</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G73" t="n">
         <v>0.0</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I73" t="n">
         <v>0.0</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K73" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
@@ -4435,37 +4630,37 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D74" t="n">
         <v>0.0</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G74" t="n">
         <v>575.0</v>
       </c>
       <c r="H74" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="I74" t="n">
         <v>0.0</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L74" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
@@ -4473,37 +4668,37 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D75" t="n">
         <v>0.0</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G75" t="n">
         <v>1829.0</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I75" t="n">
         <v>1408.0</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L75" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
@@ -4511,37 +4706,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="D76" t="n">
         <v>0.0</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G76" t="n">
         <v>8055.0</v>
       </c>
       <c r="H76" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="I76" t="n">
         <v>0.0</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K76" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L76" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
@@ -4549,37 +4744,37 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D77" t="n">
         <v>0.0</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="G77" t="n">
         <v>1174.0</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I77" t="n">
         <v>0.0</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K77" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L77" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -4587,37 +4782,37 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C78" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D78" t="n">
         <v>0.0</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G78" t="n">
         <v>3517.0</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I78" t="n">
         <v>0.0</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K78" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L78" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79">
@@ -4625,37 +4820,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D79" t="n">
         <v>0.0</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G79" t="n">
         <v>8748.0</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L79" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80">
@@ -4663,37 +4858,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D80" t="n">
         <v>0.0</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G80" t="n">
         <v>0.0</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K80" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L80" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81">
@@ -4701,37 +4896,37 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="D81" t="n">
         <v>0.0</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="G81" t="n">
         <v>4532.0</v>
       </c>
       <c r="H81" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L81" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
@@ -4739,37 +4934,37 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D82" t="n">
         <v>0.0</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="G82" t="n">
         <v>4621.0</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K82" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L82" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83">
@@ -4777,37 +4972,37 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="D83" t="n">
         <v>0.0</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G83" t="n">
         <v>2719.0</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L83" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84">
@@ -4815,37 +5010,37 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="D84" t="n">
         <v>0.0</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="G84" t="n">
         <v>238.0</v>
       </c>
       <c r="H84" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K84" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L84" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85">
@@ -4853,37 +5048,37 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C85" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D85" t="n">
         <v>0.0</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="G85" t="n">
         <v>1182.0</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
       </c>
       <c r="J85" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="K85" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L85" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86">
@@ -4891,37 +5086,37 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C86" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="D86" t="n">
         <v>0.0</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G86" t="n">
         <v>235.0</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K86" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L86" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87">
@@ -4929,37 +5124,37 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D87" t="n">
         <v>0.0</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G87" t="n">
         <v>5614.0</v>
       </c>
       <c r="H87" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I87" t="n">
         <v>0.0</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K87" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L87" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88">
@@ -4967,37 +5162,37 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D88" t="n">
         <v>0.0</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G88" t="n">
         <v>720.0</v>
       </c>
       <c r="H88" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="I88" t="n">
         <v>0.0</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K88" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L88" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
@@ -5005,37 +5200,37 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C89" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="D89" t="n">
         <v>0.0</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G89" t="n">
         <v>2254.0</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="I89" t="n">
         <v>0.0</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K89" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L89" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -5043,37 +5238,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D90" t="n">
         <v>0.0</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G90" t="n">
         <v>3209.0</v>
       </c>
       <c r="H90" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L90" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91">
@@ -5081,37 +5276,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="D91" t="n">
         <v>0.0</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G91" t="n">
         <v>2770.0</v>
       </c>
       <c r="H91" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L91" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
@@ -5119,37 +5314,37 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="D92" t="n">
         <v>0.0</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G92" t="n">
         <v>1187.0</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K92" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L92" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93">
@@ -5157,37 +5352,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="D93" t="n">
         <v>0.0</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G93" t="n">
         <v>747.0</v>
       </c>
       <c r="H93" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K93" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94">
@@ -5195,37 +5390,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="D94" t="n">
         <v>0.0</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="G94" t="n">
         <v>4908.0</v>
       </c>
       <c r="H94" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K94" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95">
@@ -5233,37 +5428,37 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="D95" t="n">
         <v>0.0</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="G95" t="n">
         <v>9100.0</v>
       </c>
       <c r="H95" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I95" t="n">
         <v>0.0</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K95" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96">
@@ -5271,37 +5466,37 @@
         <v>96.0</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="D96" t="n">
         <v>0.0</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="G96" t="n">
         <v>2715.0</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I96" t="n">
         <v>0.0</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K96" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L96" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97">
@@ -5309,37 +5504,37 @@
         <v>97.0</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D97" t="n">
         <v>0.0</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="G97" t="n">
         <v>41.0</v>
       </c>
       <c r="H97" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I97" t="n">
         <v>0.0</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K97" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
@@ -5347,37 +5542,37 @@
         <v>98.0</v>
       </c>
       <c r="B98" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C98" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D98" t="n">
         <v>0.0</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G98" t="n">
         <v>2803.0</v>
       </c>
       <c r="H98" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="I98" t="n">
         <v>0.0</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
@@ -5385,37 +5580,37 @@
         <v>99.0</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="D99" t="n">
         <v>0.0</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="G99" t="n">
         <v>1580.0</v>
       </c>
       <c r="H99" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I99" t="n">
         <v>0.0</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100">
@@ -5423,37 +5618,37 @@
         <v>100.0</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D100" t="n">
         <v>0.0</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="G100" t="n">
         <v>1841.0</v>
       </c>
       <c r="H100" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="I100" t="n">
         <v>0.0</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K100" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101">
@@ -5461,37 +5656,37 @@
         <v>101.0</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C101" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="D101" t="n">
         <v>0.0</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="G101" t="n">
         <v>1860.0</v>
       </c>
       <c r="H101" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="I101" t="n">
         <v>0.0</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K101" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102">
@@ -5499,37 +5694,37 @@
         <v>102.0</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D102" t="n">
         <v>0.0</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="G102" t="n">
         <v>141.0</v>
       </c>
       <c r="H102" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="I102" t="n">
         <v>0.0</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K102" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103">
@@ -5537,37 +5732,37 @@
         <v>103.0</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="D103" t="n">
         <v>0.0</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="G103" t="n">
         <v>4796.0</v>
       </c>
       <c r="H103" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I103" t="n">
         <v>0.0</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K103" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104">
@@ -5575,37 +5770,37 @@
         <v>104.0</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="D104" t="n">
         <v>0.0</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="G104" t="n">
         <v>1175.0</v>
       </c>
       <c r="H104" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="I104" t="n">
         <v>0.0</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105">
@@ -5613,37 +5808,37 @@
         <v>105.0</v>
       </c>
       <c r="B105" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C105" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="D105" t="n">
         <v>0.0</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="G105" t="n">
         <v>1525.0</v>
       </c>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I105" t="n">
         <v>0.0</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K105" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L105" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -5651,37 +5846,37 @@
         <v>106.0</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="D106" t="n">
         <v>0.0</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="G106" t="n">
         <v>3351.0</v>
       </c>
       <c r="H106" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="I106" t="n">
         <v>0.0</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K106" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107">
@@ -5689,37 +5884,37 @@
         <v>107.0</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="D107" t="n">
         <v>0.0</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="G107" t="n">
         <v>912.0</v>
       </c>
       <c r="H107" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="I107" t="n">
         <v>0.0</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K107" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108">
@@ -5727,37 +5922,37 @@
         <v>108.0</v>
       </c>
       <c r="B108" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C108" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="D108" t="n">
         <v>0.0</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="G108" t="n">
         <v>1294.0</v>
       </c>
       <c r="H108" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I108" t="n">
         <v>0.0</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K108" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109">
@@ -5765,37 +5960,37 @@
         <v>109.0</v>
       </c>
       <c r="B109" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="D109" t="n">
         <v>0.0</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="G109" t="n">
         <v>3760.0</v>
       </c>
       <c r="H109" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I109" t="n">
         <v>0.0</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K109" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
@@ -5803,37 +5998,37 @@
         <v>110.0</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C110" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="D110" t="n">
         <v>0.0</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="G110" t="n">
         <v>1392.0</v>
       </c>
       <c r="H110" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I110" t="n">
         <v>0.0</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K110" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111">
@@ -5841,37 +6036,37 @@
         <v>111.0</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="D111" t="n">
         <v>0.0</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="G111" t="n">
         <v>5812.0</v>
       </c>
       <c r="H111" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="I111" t="n">
         <v>0.0</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K111" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112">
@@ -5879,37 +6074,37 @@
         <v>112.0</v>
       </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="D112" t="n">
         <v>0.0</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G112" t="n">
         <v>4944.0</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I112" t="n">
         <v>0.0</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K112" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113">
@@ -5917,37 +6112,37 @@
         <v>113.0</v>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="D113" t="n">
         <v>0.0</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="G113" t="n">
         <v>4221.0</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I113" t="n">
         <v>0.0</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K113" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L113" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114">
@@ -5955,37 +6150,37 @@
         <v>114.0</v>
       </c>
       <c r="B114" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="D114" t="n">
         <v>0.0</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="G114" t="n">
         <v>5655.0</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I114" t="n">
         <v>0.0</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K114" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
@@ -5993,37 +6188,37 @@
         <v>115.0</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C115" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="D115" t="n">
         <v>0.0</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="G115" t="n">
         <v>1922.0</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K115" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
@@ -6031,37 +6226,37 @@
         <v>116.0</v>
       </c>
       <c r="B116" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="D116" t="n">
         <v>0.0</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="G116" t="n">
         <v>4307.0</v>
       </c>
       <c r="H116" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K116" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117">
@@ -6069,37 +6264,37 @@
         <v>117.0</v>
       </c>
       <c r="B117" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="D117" t="n">
         <v>0.0</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G117" t="n">
         <v>0.0</v>
       </c>
       <c r="H117" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K117" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118">
@@ -6107,37 +6302,37 @@
         <v>118.0</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="D118" t="n">
         <v>0.0</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="G118" t="n">
         <v>3028.0</v>
       </c>
       <c r="H118" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I118" t="n">
         <v>0.0</v>
       </c>
       <c r="J118" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K118" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119">
@@ -6145,37 +6340,37 @@
         <v>119.0</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="C119" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="D119" t="n">
         <v>0.0</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="G119" t="n">
         <v>4100.0</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I119" t="n">
         <v>0.0</v>
       </c>
       <c r="J119" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K119" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L119" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120">
@@ -6183,37 +6378,37 @@
         <v>120.0</v>
       </c>
       <c r="B120" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="D120" t="n">
         <v>0.0</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="G120" t="n">
         <v>5884.0</v>
       </c>
       <c r="H120" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
       </c>
       <c r="J120" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K120" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L120" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121">
@@ -6221,37 +6416,37 @@
         <v>121.0</v>
       </c>
       <c r="B121" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="D121" t="n">
         <v>0.0</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="G121" t="n">
         <v>919.0</v>
       </c>
       <c r="H121" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="I121" t="n">
         <v>0.0</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K121" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L121" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122">
@@ -6259,37 +6454,37 @@
         <v>122.0</v>
       </c>
       <c r="B122" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="D122" t="n">
         <v>0.0</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="G122" t="n">
         <v>1910.0</v>
       </c>
       <c r="H122" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="I122" t="n">
         <v>0.0</v>
       </c>
       <c r="J122" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K122" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L122" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123">
@@ -6297,37 +6492,37 @@
         <v>123.0</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C123" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="D123" t="n">
         <v>0.0</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="G123" t="n">
         <v>3215.0</v>
       </c>
       <c r="H123" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I123" t="n">
         <v>0.0</v>
       </c>
       <c r="J123" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K123" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L123" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124">
@@ -6335,37 +6530,37 @@
         <v>124.0</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D124" t="n">
         <v>0.0</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="G124" t="n">
         <v>1153.0</v>
       </c>
       <c r="H124" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I124" t="n">
         <v>0.0</v>
       </c>
       <c r="J124" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K124" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L124" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125">
@@ -6373,37 +6568,37 @@
         <v>125.0</v>
       </c>
       <c r="B125" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="D125" t="n">
         <v>0.0</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="G125" t="n">
         <v>845.0</v>
       </c>
       <c r="H125" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I125" t="n">
         <v>0.0</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K125" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L125" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126">
@@ -6411,37 +6606,37 @@
         <v>126.0</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="D126" t="n">
         <v>0.0</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="G126" t="n">
         <v>4154.0</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I126" t="n">
         <v>0.0</v>
       </c>
       <c r="J126" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K126" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L126" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127">
@@ -6449,37 +6644,37 @@
         <v>127.0</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="D127" t="n">
         <v>0.0</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="G127" t="n">
         <v>2420.0</v>
       </c>
       <c r="H127" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I127" t="n">
         <v>0.0</v>
       </c>
       <c r="J127" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L127" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128">
@@ -6487,37 +6682,37 @@
         <v>128.0</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C128" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D128" t="n">
         <v>0.0</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="G128" t="n">
         <v>5056.0</v>
       </c>
       <c r="H128" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I128" t="n">
         <v>0.0</v>
       </c>
       <c r="J128" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K128" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L128" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129">
@@ -6525,37 +6720,37 @@
         <v>129.0</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="D129" t="n">
         <v>0.0</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="G129" t="n">
         <v>3363.0</v>
       </c>
       <c r="H129" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>
       </c>
       <c r="J129" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K129" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L129" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
@@ -6563,37 +6758,37 @@
         <v>130.0</v>
       </c>
       <c r="B130" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C130" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="D130" t="n">
         <v>0.0</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="G130" t="n">
         <v>1188.0</v>
       </c>
       <c r="H130" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="I130" t="n">
         <v>0.0</v>
       </c>
       <c r="J130" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K130" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L130" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131">
@@ -6601,37 +6796,37 @@
         <v>131.0</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="C131" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="D131" t="n">
         <v>0.0</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="G131" t="n">
         <v>2312.0</v>
       </c>
       <c r="H131" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I131" t="n">
         <v>0.0</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K131" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L131" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132">
@@ -6639,37 +6834,37 @@
         <v>132.0</v>
       </c>
       <c r="B132" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D132" t="n">
         <v>0.0</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="G132" t="n">
         <v>741.0</v>
       </c>
       <c r="H132" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I132" t="n">
         <v>0.0</v>
       </c>
       <c r="J132" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K132" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L132" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133">
@@ -6677,37 +6872,37 @@
         <v>133.0</v>
       </c>
       <c r="B133" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="D133" t="n">
         <v>0.0</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G133" t="n">
         <v>0.0</v>
       </c>
       <c r="H133" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I133" t="n">
         <v>0.0</v>
       </c>
       <c r="J133" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K133" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L133" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134">
@@ -6715,37 +6910,37 @@
         <v>134.0</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="D134" t="n">
         <v>0.0</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="G134" t="n">
         <v>2618.0</v>
       </c>
       <c r="H134" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I134" t="n">
         <v>0.0</v>
       </c>
       <c r="J134" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K134" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L134" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135">
@@ -6753,37 +6948,37 @@
         <v>135.0</v>
       </c>
       <c r="B135" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="D135" t="n">
         <v>0.0</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="G135" t="n">
         <v>1392.0</v>
       </c>
       <c r="H135" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="I135" t="n">
         <v>0.0</v>
       </c>
       <c r="J135" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K135" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L135" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136">
@@ -6791,37 +6986,37 @@
         <v>136.0</v>
       </c>
       <c r="B136" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C136" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="D136" t="n">
         <v>0.0</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="G136" t="n">
         <v>1899.0</v>
       </c>
       <c r="H136" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="I136" t="n">
         <v>0.0</v>
       </c>
       <c r="J136" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K136" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L136" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
@@ -6829,37 +7024,37 @@
         <v>137.0</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="D137" t="n">
         <v>0.0</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="G137" t="n">
         <v>5362.0</v>
       </c>
       <c r="H137" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="I137" t="n">
         <v>0.0</v>
       </c>
       <c r="J137" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K137" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="L137" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138">
@@ -6867,37 +7062,37 @@
         <v>138.0</v>
       </c>
       <c r="B138" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="D138" t="n">
         <v>0.0</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G138" t="n">
         <v>2435.0</v>
       </c>
       <c r="H138" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I138" t="n">
         <v>0.0</v>
       </c>
       <c r="J138" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K138" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L138" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139">
@@ -6905,37 +7100,37 @@
         <v>139.0</v>
       </c>
       <c r="B139" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D139" t="n">
         <v>0.0</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="G139" t="n">
         <v>3172.0</v>
       </c>
       <c r="H139" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="I139" t="n">
         <v>0.0</v>
       </c>
       <c r="J139" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K139" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L139" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140">
@@ -6943,37 +7138,37 @@
         <v>140.0</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="D140" t="n">
         <v>0.0</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="G140" t="n">
         <v>3589.0</v>
       </c>
       <c r="H140" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I140" t="n">
         <v>0.0</v>
       </c>
       <c r="J140" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K140" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L140" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141">
@@ -6981,37 +7176,37 @@
         <v>141.0</v>
       </c>
       <c r="B141" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C141" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="D141" t="n">
         <v>0.0</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="G141" t="n">
         <v>47.0</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I141" t="n">
         <v>0.0</v>
       </c>
       <c r="J141" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K141" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L141" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142">
@@ -7019,37 +7214,37 @@
         <v>142.0</v>
       </c>
       <c r="B142" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="D142" t="n">
         <v>0.0</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="G142" t="n">
         <v>3932.0</v>
       </c>
       <c r="H142" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="I142" t="n">
         <v>0.0</v>
       </c>
       <c r="J142" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K142" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L142" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
@@ -7057,37 +7252,37 @@
         <v>143.0</v>
       </c>
       <c r="B143" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="C143" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="D143" t="n">
         <v>0.0</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="G143" t="n">
         <v>1264.0</v>
       </c>
       <c r="H143" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I143" t="n">
         <v>0.0</v>
       </c>
       <c r="J143" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K143" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L143" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144">
@@ -7095,37 +7290,37 @@
         <v>144.0</v>
       </c>
       <c r="B144" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="D144" t="n">
         <v>0.0</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="G144" t="n">
         <v>196.0</v>
       </c>
       <c r="H144" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="I144" t="n">
         <v>0.0</v>
       </c>
       <c r="J144" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K144" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L144" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145">
@@ -7133,37 +7328,37 @@
         <v>145.0</v>
       </c>
       <c r="B145" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="D145" t="n">
         <v>0.0</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="G145" t="n">
         <v>2865.0</v>
       </c>
       <c r="H145" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I145" t="n">
         <v>0.0</v>
       </c>
       <c r="J145" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K145" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L145" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146">
@@ -7171,37 +7366,37 @@
         <v>146.0</v>
       </c>
       <c r="B146" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="D146" t="n">
         <v>0.0</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G146" t="n">
         <v>3325.0</v>
       </c>
       <c r="H146" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="I146" t="n">
         <v>0.0</v>
       </c>
       <c r="J146" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K146" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L146" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147">
@@ -7209,37 +7404,37 @@
         <v>147.0</v>
       </c>
       <c r="B147" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="D147" t="n">
         <v>0.0</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="G147" t="n">
         <v>4559.0</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I147" t="n">
         <v>0.0</v>
       </c>
       <c r="J147" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K147" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L147" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148">
@@ -7247,37 +7442,37 @@
         <v>148.0</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C148" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D148" t="n">
         <v>0.0</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="G148" t="n">
         <v>4714.0</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I148" t="n">
         <v>0.0</v>
       </c>
       <c r="J148" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K148" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L148" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149">
@@ -7285,37 +7480,37 @@
         <v>149.0</v>
       </c>
       <c r="B149" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D149" t="n">
         <v>0.0</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="G149" t="n">
         <v>550.0</v>
       </c>
       <c r="H149" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="I149" t="n">
         <v>0.0</v>
       </c>
       <c r="J149" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K149" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L149" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150">
@@ -7323,37 +7518,37 @@
         <v>150.0</v>
       </c>
       <c r="B150" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="C150" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="D150" t="n">
         <v>0.0</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="G150" t="n">
         <v>4780.0</v>
       </c>
       <c r="H150" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="I150" t="n">
         <v>0.0</v>
       </c>
       <c r="J150" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K150" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L150" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151">
@@ -7361,37 +7556,37 @@
         <v>151.0</v>
       </c>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="D151" t="n">
         <v>0.0</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="G151" t="n">
         <v>1150.0</v>
       </c>
       <c r="H151" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="I151" t="n">
         <v>0.0</v>
       </c>
       <c r="J151" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K151" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L151" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152">
@@ -7399,37 +7594,37 @@
         <v>152.0</v>
       </c>
       <c r="B152" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C152" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="D152" t="n">
         <v>0.0</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="G152" t="n">
         <v>0.0</v>
       </c>
       <c r="H152" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="I152" t="n">
         <v>0.0</v>
       </c>
       <c r="J152" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K152" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L152" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153">
@@ -7437,37 +7632,37 @@
         <v>153.0</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D153" t="n">
         <v>0.0</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="G153" t="n">
         <v>5240.0</v>
       </c>
       <c r="H153" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="I153" t="n">
         <v>0.0</v>
       </c>
       <c r="J153" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K153" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L153" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154">
@@ -7475,37 +7670,37 @@
         <v>154.0</v>
       </c>
       <c r="B154" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="C154" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="D154" t="n">
         <v>0.0</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="G154" t="n">
         <v>1275.0</v>
       </c>
       <c r="H154" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I154" t="n">
         <v>0.0</v>
       </c>
       <c r="J154" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K154" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L154" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155">
@@ -7513,37 +7708,37 @@
         <v>155.0</v>
       </c>
       <c r="B155" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D155" t="n">
         <v>0.0</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="G155" t="n">
         <v>462.0</v>
       </c>
       <c r="H155" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="I155" t="n">
         <v>0.0</v>
       </c>
       <c r="J155" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K155" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L155" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156">
@@ -7551,37 +7746,37 @@
         <v>156.0</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="D156" t="n">
         <v>0.0</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="G156" t="n">
         <v>6158.0</v>
       </c>
       <c r="H156" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I156" t="n">
         <v>0.0</v>
       </c>
       <c r="J156" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K156" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L156" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157">
@@ -7589,37 +7784,37 @@
         <v>157.0</v>
       </c>
       <c r="B157" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="C157" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="D157" t="n">
         <v>0.0</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="G157" t="n">
         <v>3939.0</v>
       </c>
       <c r="H157" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I157" t="n">
         <v>0.0</v>
       </c>
       <c r="J157" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K157" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L157" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158">
@@ -7627,37 +7822,37 @@
         <v>158.0</v>
       </c>
       <c r="B158" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="C158" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="D158" t="n">
         <v>0.0</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G158" t="n">
         <v>0.0</v>
       </c>
       <c r="H158" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I158" t="n">
         <v>0.0</v>
       </c>
       <c r="J158" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K158" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L158" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159">
@@ -7665,37 +7860,37 @@
         <v>159.0</v>
       </c>
       <c r="B159" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C159" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="D159" t="n">
         <v>0.0</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="G159" t="n">
         <v>2701.0</v>
       </c>
       <c r="H159" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="I159" t="n">
         <v>0.0</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K159" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L159" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160">
@@ -7703,37 +7898,37 @@
         <v>160.0</v>
       </c>
       <c r="B160" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D160" t="n">
         <v>0.0</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="G160" t="n">
         <v>5475.0</v>
       </c>
       <c r="H160" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="I160" t="n">
         <v>0.0</v>
       </c>
       <c r="J160" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K160" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L160" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161">
@@ -7741,37 +7936,37 @@
         <v>161.0</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="D161" t="n">
         <v>0.0</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="G161" t="n">
         <v>2040.0</v>
       </c>
       <c r="H161" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="I161" t="n">
         <v>0.0</v>
       </c>
       <c r="J161" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K161" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L161" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162">
@@ -7779,37 +7974,37 @@
         <v>163.0</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="C162" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="D162" t="n">
         <v>0.0</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="G162" t="n">
         <v>3242.0</v>
       </c>
       <c r="H162" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I162" t="n">
         <v>0.0</v>
       </c>
       <c r="J162" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K162" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L162" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163">
@@ -7817,37 +8012,37 @@
         <v>164.0</v>
       </c>
       <c r="B163" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="C163" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="D163" t="n">
         <v>0.0</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="G163" t="n">
         <v>3950.0</v>
       </c>
       <c r="H163" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="I163" t="n">
         <v>0.0</v>
       </c>
       <c r="J163" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K163" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L163" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164">
@@ -7855,37 +8050,37 @@
         <v>165.0</v>
       </c>
       <c r="B164" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="C164" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D164" t="n">
         <v>0.0</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F164" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="G164" t="n">
         <v>2396.0</v>
       </c>
       <c r="H164" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="I164" t="n">
         <v>0.0</v>
       </c>
       <c r="J164" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K164" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L164" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165">
@@ -7893,37 +8088,265 @@
         <v>166.0</v>
       </c>
       <c r="B165" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="C165" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="D165" t="n">
         <v>0.0</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="G165" t="n">
         <v>579.0</v>
       </c>
       <c r="H165" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I165" t="n">
         <v>0.0</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K165" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="L165" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4141.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>527</v>
+      </c>
+      <c r="C166" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1111.0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>528</v>
+      </c>
+      <c r="F166" t="s">
+        <v>529</v>
+      </c>
+      <c r="G166" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>530</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
+      </c>
+      <c r="K166" t="s">
+        <v>72</v>
+      </c>
+      <c r="L166" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>45646.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>531</v>
+      </c>
+      <c r="C167" t="s">
+        <v>532</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1615.0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>533</v>
+      </c>
+      <c r="F167" t="s">
+        <v>534</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1407.0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>535</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J167" t="s">
+        <v>44</v>
+      </c>
+      <c r="K167" t="s">
+        <v>45</v>
+      </c>
+      <c r="L167" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>45656.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168" t="s">
+        <v>537</v>
+      </c>
+      <c r="D168" t="n">
+        <v>165156.0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>538</v>
+      </c>
+      <c r="F168" t="s">
+        <v>539</v>
+      </c>
+      <c r="G168" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>540</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>237</v>
+      </c>
+      <c r="K168" t="s">
+        <v>45</v>
+      </c>
+      <c r="L168" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>456456.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>542</v>
+      </c>
+      <c r="C169" t="s">
+        <v>543</v>
+      </c>
+      <c r="D169" t="n">
+        <v>56456.0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>544</v>
+      </c>
+      <c r="F169" t="s">
+        <v>545</v>
+      </c>
+      <c r="G169" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>546</v>
+      </c>
+      <c r="I169" t="n">
+        <v>23432.0</v>
+      </c>
+      <c r="J169" t="s">
+        <v>237</v>
+      </c>
+      <c r="K169" t="s">
+        <v>45</v>
+      </c>
+      <c r="L169" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4.1288456E7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>548</v>
+      </c>
+      <c r="C170" t="s">
+        <v>532</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1561236.0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>549</v>
+      </c>
+      <c r="F170" t="s">
+        <v>550</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>535</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>44</v>
+      </c>
+      <c r="K170" t="s">
+        <v>45</v>
+      </c>
+      <c r="L170" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4.5645615E7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>551</v>
+      </c>
+      <c r="C171" t="s">
+        <v>552</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4564.0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>553</v>
+      </c>
+      <c r="F171" t="s">
+        <v>554</v>
+      </c>
+      <c r="G171" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>555</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J171" t="s">
+        <v>44</v>
+      </c>
+      <c r="K171" t="s">
+        <v>45</v>
+      </c>
+      <c r="L171" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -7938,31 +8361,951 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.55859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.48828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.38671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.1796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.1796875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C2" t="n">
+        <v>2450.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1450.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="C3" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="G3" t="s">
         <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7300.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11200.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12000.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8400.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8200.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8200.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25500.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17400.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18123.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9123.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31500.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12500.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6500.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10034.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5034.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14012.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7012.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8123.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7323.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14123.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7123.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9123.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8223.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20123.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10123.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6300.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12000.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5700.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8000.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7600.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12000.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>41000.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>28600.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2150.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2050.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2456.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2356.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7977,19 +9320,627 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="3.078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.48828125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>522</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>583</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>582</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14000.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11000.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" t="n">
+        <v>18000.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16000.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12000.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>582</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>582</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14000.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14000.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>582</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>583</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>583</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22000.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22000.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>582</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>582</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12000.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>583</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>583</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>583</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>582</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12000.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" t="n">
+        <v>22000.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>583</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14000.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>583</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>583</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2000.0</v>
       </c>
     </row>
   </sheetData>
@@ -8005,9 +9956,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="4.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="2.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.98046875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="5.375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.30859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.30859375" customWidth="true" bestFit="true"/>
@@ -8016,36 +9967,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>518</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="B2" t="n">
         <v>450.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>-126.0</v>
       </c>
       <c r="D2" t="n">
         <v>2000.0</v>
@@ -8058,6 +10009,29 @@
       </c>
       <c r="G2" t="n">
         <v>16.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-141.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -8072,16 +10046,43 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.921875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>510</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4561.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
